--- a/va_facility_data_2025-02-20/Rutland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rutland%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rutland VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rutland%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb37c0ba1e8ec4f57b9290d048c5ba556"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfed1f87bcca34b178a88950acc8adfc4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77b782c4a9a944159245b103b7339815"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R43a01aa49cda4cd7ada97fe4cfefb4f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rac971b31d7a348c59e06dd98dc11103e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra72e45e05bd84ac3a2c7e273ea60a868"/>
   </x:sheets>
 </x:workbook>
 </file>
